--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-08T11:52:18-04:00</t>
+    <t>2025-07-09T10:14:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
